--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value59.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value59.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6998081012504304</v>
+        <v>1.834112048149109</v>
       </c>
       <c r="B1">
-        <v>1.137975302446833</v>
+        <v>3.097206592559814</v>
       </c>
       <c r="C1">
-        <v>2.303425147704587</v>
+        <v>3.431394815444946</v>
       </c>
       <c r="D1">
-        <v>2.719236399075481</v>
+        <v>3.773215055465698</v>
       </c>
       <c r="E1">
-        <v>2.229298782395388</v>
+        <v>2.588592529296875</v>
       </c>
     </row>
   </sheetData>
